--- a/data/raw_data/ManyPrimates_mp1_datasheet_UCSD.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_UCSD.xlsx
@@ -30281,7 +30281,7 @@
         <v>2.0</v>
       </c>
       <c r="K11" s="16">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L11" s="16">
         <v>10.0</v>
@@ -30338,7 +30338,7 @@
         <v>2.0</v>
       </c>
       <c r="K12" s="16">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L12" s="16">
         <v>11.0</v>
@@ -30395,7 +30395,7 @@
         <v>2.0</v>
       </c>
       <c r="K13" s="16">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L13" s="16">
         <v>12.0</v>
@@ -30452,7 +30452,7 @@
         <v>2.0</v>
       </c>
       <c r="K14" s="16">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L14" s="16">
         <v>13.0</v>
@@ -30511,7 +30511,7 @@
         <v>2.0</v>
       </c>
       <c r="K15" s="16">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L15" s="16">
         <v>14.0</v>
@@ -30568,7 +30568,7 @@
         <v>2.0</v>
       </c>
       <c r="K16" s="16">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L16" s="16">
         <v>15.0</v>
@@ -30625,7 +30625,7 @@
         <v>2.0</v>
       </c>
       <c r="K17" s="16">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="L17" s="16">
         <v>16.0</v>
@@ -30682,7 +30682,7 @@
         <v>2.0</v>
       </c>
       <c r="K18" s="16">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="L18" s="16">
         <v>17.0</v>
@@ -30741,7 +30741,7 @@
         <v>2.0</v>
       </c>
       <c r="K19" s="16">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="L19" s="16">
         <v>18.0</v>

--- a/data/raw_data/ManyPrimates_mp1_datasheet_UCSD.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_UCSD.xlsx
@@ -36,6 +36,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">formatted in the following way: YYYYMMDD (e.g. 20180131). </t>
     </r>
     <r>
@@ -107,6 +108,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">block number, </t>
     </r>
     <r>
@@ -116,6 +118,7 @@
       <t>continuous across sessions</t>
     </r>
     <r>
+      <rPr/>
       <t>. Each block must be three trials of the same delay type. Must be numeric</t>
     </r>
   </si>
@@ -124,6 +127,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">trial number, </t>
     </r>
     <r>
@@ -133,6 +137,7 @@
       <t>continuous across sessions</t>
     </r>
     <r>
+      <rPr/>
       <t xml:space="preserve"> (i.e., do not start again with 1). Must be numeric</t>
     </r>
   </si>
@@ -153,6 +158,7 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">first location indicated by subject </t>
     </r>
     <r>
